--- a/data/trans_orig/P12_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P12_2_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8380DB12-15C0-4A7B-BE22-0DE776BE481C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD2D33E1-1710-4F1C-B9D8-DE32A3151A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23F76D88-CC36-466B-B649-7EF1D2CB8F92}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{74303AD7-2255-452E-8C7B-0BD331E201CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
   <si>
     <t>Población que tuvo mucha energía alguna vez o algunas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>16,67%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>27,35%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
   </si>
   <si>
     <t>21,95%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>83,33%</t>
   </si>
   <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>72,65%</t>
   </si>
   <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
   </si>
   <si>
     <t>78,05%</t>
   </si>
   <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,879 +140,867 @@
     <t>18,57%</t>
   </si>
   <si>
-    <t>15,64%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2012 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2015 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>77,76%</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2012 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
     <t>76,19%</t>
   </si>
   <si>
@@ -1031,265 +1019,262 @@
     <t>30,15%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
+    <t>32,25%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>23,12%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
   </si>
   <si>
     <t>74,18%</t>
   </si>
   <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
+    <t>67,75%</t>
   </si>
   <si>
     <t>72,28%</t>
   </si>
   <si>
-    <t>76,88%</t>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>22,77%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
   </si>
   <si>
     <t>20,95%</t>
   </si>
   <si>
-    <t>23,11%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
   </si>
   <si>
     <t>81,01%</t>
   </si>
   <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
   </si>
   <si>
     <t>77,23%</t>
   </si>
   <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>79,05%</t>
   </si>
   <si>
-    <t>76,89%</t>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>18,45%</t>
+    <t>18,46%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>12,92%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>81,55%</t>
+    <t>81,54%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>87,08%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>80,54%</t>
   </si>
   <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
   </si>
   <si>
     <t>77,05%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>15,35%</t>
   </si>
   <si>
     <t>22,54%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>19,83%</t>
@@ -1298,31 +1283,28 @@
     <t>18,58%</t>
   </si>
   <si>
-    <t>20,85%</t>
+    <t>20,8%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
+    <t>84,65%</t>
   </si>
   <si>
     <t>77,46%</t>
   </si>
   <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
   </si>
   <si>
     <t>80,17%</t>
   </si>
   <si>
-    <t>79,15%</t>
+    <t>79,2%</t>
   </si>
   <si>
     <t>81,42%</t>
@@ -1737,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F027EF-B658-4FEB-83AF-538DDA266E63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F527B-18EF-4863-AF84-B17F75B59938}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2517,7 +2499,7 @@
         <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2514,13 @@
         <v>753289</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>695</v>
@@ -2547,13 +2529,13 @@
         <v>720248</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1490</v>
@@ -2562,13 +2544,13 @@
         <v>1473538</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2618,13 @@
         <v>639218</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>969</v>
@@ -2651,28 +2633,28 @@
         <v>1002566</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1603</v>
       </c>
       <c r="N19" s="7">
-        <v>1641784</v>
+        <v>1641785</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2669,13 @@
         <v>2637326</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>2328</v>
@@ -2702,13 +2684,13 @@
         <v>2376632</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>4908</v>
@@ -2717,13 +2699,13 @@
         <v>5013956</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,7 +2747,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2779,7 +2761,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +2782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89361B22-4D33-47E0-A52B-EC9EEB80F0F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B1330F-3A9E-4DA1-9794-AE3D863BC0C2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2817,7 +2799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,13 +2906,13 @@
         <v>21558</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -2939,10 +2921,10 @@
         <v>36135</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>128</v>
@@ -2978,10 +2960,10 @@
         <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -2990,13 +2972,13 @@
         <v>75770</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>165</v>
@@ -3005,13 +2987,13 @@
         <v>169012</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3061,13 @@
         <v>91600</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -3094,13 +3076,13 @@
         <v>137537</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>214</v>
@@ -3109,13 +3091,13 @@
         <v>229136</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3112,13 @@
         <v>496104</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>421</v>
@@ -3145,13 +3127,13 @@
         <v>446657</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>888</v>
@@ -3160,13 +3142,13 @@
         <v>942762</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3216,13 @@
         <v>147143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>214</v>
@@ -3249,13 +3231,13 @@
         <v>235744</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>348</v>
@@ -3264,13 +3246,13 @@
         <v>382887</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3267,13 @@
         <v>869673</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>725</v>
@@ -3300,13 +3282,13 @@
         <v>795376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1526</v>
@@ -3315,13 +3297,13 @@
         <v>1665048</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3371,13 @@
         <v>138001</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>175</v>
@@ -3404,13 +3386,13 @@
         <v>189571</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>297</v>
@@ -3419,13 +3401,13 @@
         <v>327572</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3422,13 @@
         <v>619622</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>526</v>
@@ -3455,13 +3437,13 @@
         <v>582658</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>1093</v>
@@ -3470,10 +3452,10 @@
         <v>1202280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>190</v>
@@ -3622,7 +3604,7 @@
         <v>1447</v>
       </c>
       <c r="N17" s="7">
-        <v>1498923</v>
+        <v>1498922</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>206</v>
@@ -3673,7 +3655,7 @@
         <v>1912</v>
       </c>
       <c r="N18" s="7">
-        <v>1998704</v>
+        <v>1998703</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3732,10 +3714,10 @@
         <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3732,13 @@
         <v>2831161</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>2455</v>
@@ -3765,13 +3747,13 @@
         <v>2646863</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>5119</v>
@@ -3780,13 +3762,13 @@
         <v>5478024</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3824,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F57D3E-1115-4EC0-BBBB-556875C42028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5B9160-85B2-4A3D-BF80-BEF070D0D35D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3880,7 +3862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,13 +3969,13 @@
         <v>25384</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -4002,13 +3984,13 @@
         <v>30108</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -4017,13 +3999,13 @@
         <v>55492</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4020,13 @@
         <v>90016</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -4053,13 +4035,13 @@
         <v>83252</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>174</v>
@@ -4068,13 +4050,13 @@
         <v>173268</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4124,13 @@
         <v>94667</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>115</v>
@@ -4157,13 +4139,13 @@
         <v>120142</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>209</v>
@@ -4172,13 +4154,13 @@
         <v>214809</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>68</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4175,13 @@
         <v>463587</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -4208,13 +4190,13 @@
         <v>437611</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>879</v>
@@ -4223,10 +4205,10 @@
         <v>901198</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>77</v>
@@ -4297,13 +4279,13 @@
         <v>148999</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>214</v>
@@ -4312,13 +4294,13 @@
         <v>236292</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>361</v>
@@ -4327,13 +4309,13 @@
         <v>385291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4330,13 @@
         <v>872445</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>763</v>
@@ -4363,13 +4345,13 @@
         <v>806621</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="M11" s="7">
         <v>1566</v>
@@ -4378,13 +4360,13 @@
         <v>1679066</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4434,13 @@
         <v>114847</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -4467,13 +4449,13 @@
         <v>157063</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>252</v>
@@ -4482,13 +4464,13 @@
         <v>271911</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4485,13 @@
         <v>643754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -4518,13 +4500,13 @@
         <v>624523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>1176</v>
@@ -4533,13 +4515,13 @@
         <v>1268277</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4589,13 @@
         <v>147337</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>210</v>
@@ -4622,13 +4604,13 @@
         <v>243211</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>360</v>
@@ -4637,13 +4619,13 @@
         <v>390548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4640,13 @@
         <v>789204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>748</v>
@@ -4673,13 +4655,13 @@
         <v>799498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>1529</v>
@@ -4688,13 +4670,13 @@
         <v>1588702</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4744,13 @@
         <v>531234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="H19" s="7">
         <v>710</v>
@@ -4777,13 +4759,13 @@
         <v>786816</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>1235</v>
@@ -4792,13 +4774,13 @@
         <v>1318049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4795,13 @@
         <v>2859006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>29</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>2622</v>
@@ -4828,13 +4810,13 @@
         <v>2751506</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>42</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>5324</v>
@@ -4843,13 +4825,13 @@
         <v>5610513</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4887,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0512285-4C79-4621-889A-AB78AC31385C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D87853-BD6B-46BB-8C93-F3119DEFCC07}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +4925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,13 +5032,13 @@
         <v>30745</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>79</v>
@@ -5065,13 +5047,13 @@
         <v>33761</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>117</v>
@@ -5080,13 +5062,13 @@
         <v>64506</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>37</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5083,13 @@
         <v>71237</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>164</v>
@@ -5116,13 +5098,13 @@
         <v>96972</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>244</v>
@@ -5131,13 +5113,13 @@
         <v>168209</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5187,13 @@
         <v>104403</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>255</v>
@@ -5220,13 +5202,13 @@
         <v>135042</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>395</v>
@@ -5235,13 +5217,13 @@
         <v>239446</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5238,13 @@
         <v>445420</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>741</v>
@@ -5271,13 +5253,13 @@
         <v>457920</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>1213</v>
@@ -5286,13 +5268,13 @@
         <v>903339</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5342,13 @@
         <v>132954</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>371</v>
@@ -5375,13 +5357,13 @@
         <v>223023</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>533</v>
@@ -5390,13 +5372,13 @@
         <v>355976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>316</v>
+        <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5393,13 @@
         <v>905322</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>1142</v>
@@ -5426,13 +5408,13 @@
         <v>834839</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>1943</v>
@@ -5441,13 +5423,13 @@
         <v>1740162</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5497,13 @@
         <v>112356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>275</v>
@@ -5530,13 +5512,13 @@
         <v>168262</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>398</v>
@@ -5545,13 +5527,13 @@
         <v>280618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5548,13 @@
         <v>616416</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>772</v>
@@ -5581,13 +5563,13 @@
         <v>706109</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>1325</v>
@@ -5596,13 +5578,13 @@
         <v>1322524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5652,13 @@
         <v>187882</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H16" s="7">
         <v>440</v>
@@ -5685,13 +5667,13 @@
         <v>297199</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>654</v>
@@ -5700,13 +5682,13 @@
         <v>485081</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5703,13 @@
         <v>777521</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>1120</v>
@@ -5736,13 +5718,13 @@
         <v>850933</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>1912</v>
@@ -5751,13 +5733,13 @@
         <v>1628454</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5807,13 @@
         <v>568339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>177</v>
       </c>
       <c r="H19" s="7">
         <v>1420</v>
@@ -5840,28 +5822,28 @@
         <v>857287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>2097</v>
       </c>
       <c r="N19" s="7">
-        <v>1425626</v>
+        <v>1425627</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5858,13 @@
         <v>2815917</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>184</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H20" s="7">
         <v>3939</v>
@@ -5891,13 +5873,13 @@
         <v>2946772</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>6637</v>
@@ -5906,13 +5888,13 @@
         <v>5762689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,7 +5936,7 @@
         <v>8734</v>
       </c>
       <c r="N21" s="7">
-        <v>7188315</v>
+        <v>7188316</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5968,7 +5950,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P12_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P12_2_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD2D33E1-1710-4F1C-B9D8-DE32A3151A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89BE15BA-5F03-4410-AB0B-3624D552225B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{74303AD7-2255-452E-8C7B-0BD331E201CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F72D3D8-0459-4366-81E4-B31343C4CB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
   <si>
     <t>Población que tuvo mucha energía alguna vez o algunas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,1122 +77,1122 @@
     <t>16,67%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>27,35%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
   </si>
   <si>
     <t>21,95%</t>
   </si>
   <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2012 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
   </si>
   <si>
     <t>83,02%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2012 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>20,43%</t>
   </si>
   <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
   </si>
   <si>
     <t>79,57%</t>
   </si>
   <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
     <t>80,76%</t>
   </si>
   <si>
@@ -1217,9 +1217,6 @@
     <t>22,46%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
     <t>23,52%</t>
   </si>
   <si>
@@ -1244,9 +1241,6 @@
     <t>82,95%</t>
   </si>
   <si>
-    <t>74,11%</t>
-  </si>
-  <si>
     <t>71,43%</t>
   </si>
   <si>
@@ -1274,9 +1268,6 @@
     <t>20,25%</t>
   </si>
   <si>
-    <t>23,96%</t>
-  </si>
-  <si>
     <t>19,83%</t>
   </si>
   <si>
@@ -1293,9 +1284,6 @@
   </si>
   <si>
     <t>77,46%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
   </si>
   <si>
     <t>79,75%</t>
@@ -1719,7 +1707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F527B-18EF-4863-AF84-B17F75B59938}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6936BD-C480-490C-8071-9CC078E26D6B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2308,13 +2296,13 @@
         <v>116124</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -2323,13 +2311,13 @@
         <v>161150</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>275</v>
@@ -2338,13 +2326,13 @@
         <v>277273</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2347,13 @@
         <v>562385</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -2374,13 +2362,13 @@
         <v>522691</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1062</v>
@@ -2389,13 +2377,13 @@
         <v>1085077</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,7 +2439,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2463,13 +2451,13 @@
         <v>188933</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>302</v>
@@ -2478,13 +2466,13 @@
         <v>318364</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>501</v>
@@ -2493,13 +2481,13 @@
         <v>507296</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2502,13 @@
         <v>753289</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>695</v>
@@ -2529,13 +2517,13 @@
         <v>720248</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>1490</v>
@@ -2544,10 +2532,10 @@
         <v>1473538</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>102</v>
@@ -2666,7 +2654,7 @@
         <v>2580</v>
       </c>
       <c r="D20" s="7">
-        <v>2637326</v>
+        <v>2637325</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>112</v>
@@ -2717,7 +2705,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2782,7 +2770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B1330F-3A9E-4DA1-9794-AE3D863BC0C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB683A9-5070-45F1-B331-431FCE340EB6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2939,10 +2927,10 @@
         <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2945,13 @@
         <v>93242</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -2972,13 +2960,13 @@
         <v>75770</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>165</v>
@@ -2987,13 +2975,13 @@
         <v>169012</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3049,13 @@
         <v>91600</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -3076,13 +3064,13 @@
         <v>137537</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>214</v>
@@ -3091,13 +3079,13 @@
         <v>229136</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3100,13 @@
         <v>496104</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>421</v>
@@ -3127,13 +3115,13 @@
         <v>446657</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>888</v>
@@ -3142,13 +3130,13 @@
         <v>942762</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3204,13 @@
         <v>147143</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>214</v>
@@ -3231,13 +3219,13 @@
         <v>235744</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>348</v>
@@ -3246,13 +3234,13 @@
         <v>382887</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3255,13 @@
         <v>869673</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>725</v>
@@ -3282,13 +3270,13 @@
         <v>795376</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1526</v>
@@ -3297,13 +3285,13 @@
         <v>1665048</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3359,13 @@
         <v>138001</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>175</v>
@@ -3386,13 +3374,13 @@
         <v>189571</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>297</v>
@@ -3401,13 +3389,13 @@
         <v>327572</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,10 +3428,10 @@
         <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1093</v>
@@ -3452,13 +3440,13 @@
         <v>1202280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3502,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3526,13 +3514,13 @@
         <v>194283</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>287</v>
@@ -3541,13 +3529,13 @@
         <v>305498</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>465</v>
@@ -3556,13 +3544,13 @@
         <v>499781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3565,13 @@
         <v>752519</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>716</v>
@@ -3592,28 +3580,28 @@
         <v>746403</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>1447</v>
       </c>
       <c r="N17" s="7">
-        <v>1498922</v>
+        <v>1498923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,7 +3643,7 @@
         <v>1912</v>
       </c>
       <c r="N18" s="7">
-        <v>1998703</v>
+        <v>1998704</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3681,13 +3669,13 @@
         <v>592584</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>837</v>
@@ -3696,13 +3684,13 @@
         <v>904486</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>1379</v>
@@ -3711,13 +3699,13 @@
         <v>1497070</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3720,13 @@
         <v>2831161</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>2455</v>
@@ -3747,13 +3735,13 @@
         <v>2646863</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>5119</v>
@@ -3762,13 +3750,13 @@
         <v>5478024</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5B9160-85B2-4A3D-BF80-BEF070D0D35D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AE45DA-95D2-4609-8065-203A584EFEB2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3862,7 +3850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3969,13 +3957,13 @@
         <v>25384</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3984,13 +3972,13 @@
         <v>30108</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -3999,13 +3987,13 @@
         <v>55492</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4008,13 @@
         <v>90016</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -4035,13 +4023,13 @@
         <v>83252</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>174</v>
@@ -4050,13 +4038,13 @@
         <v>173268</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4112,13 @@
         <v>94667</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>115</v>
@@ -4139,13 +4127,13 @@
         <v>120142</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>209</v>
@@ -4154,13 +4142,13 @@
         <v>214809</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>68</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4163,13 @@
         <v>463587</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -4190,13 +4178,13 @@
         <v>437611</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>879</v>
@@ -4205,13 +4193,13 @@
         <v>901198</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>77</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4267,13 @@
         <v>148999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>214</v>
@@ -4294,13 +4282,13 @@
         <v>236292</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>361</v>
@@ -4309,13 +4297,13 @@
         <v>385291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4318,13 @@
         <v>872445</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>763</v>
@@ -4345,13 +4333,13 @@
         <v>806621</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>1566</v>
@@ -4360,13 +4348,13 @@
         <v>1679066</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4422,13 @@
         <v>114847</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -4449,13 +4437,13 @@
         <v>157063</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>252</v>
@@ -4470,7 +4458,7 @@
         <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4473,13 @@
         <v>643754</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -4500,13 +4488,13 @@
         <v>624523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>1176</v>
@@ -4515,13 +4503,13 @@
         <v>1268277</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,7 +4565,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4589,13 +4577,13 @@
         <v>147337</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>210</v>
@@ -4604,13 +4592,13 @@
         <v>243211</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>360</v>
@@ -4619,13 +4607,13 @@
         <v>390548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4628,13 @@
         <v>789204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>748</v>
@@ -4655,13 +4643,13 @@
         <v>799498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>1529</v>
@@ -4670,13 +4658,13 @@
         <v>1588702</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4732,13 @@
         <v>531234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
         <v>710</v>
@@ -4759,13 +4747,13 @@
         <v>786816</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>1235</v>
@@ -4774,13 +4762,13 @@
         <v>1318049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4783,13 @@
         <v>2859006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>2622</v>
@@ -4810,13 +4798,13 @@
         <v>2751506</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>5324</v>
@@ -4825,13 +4813,13 @@
         <v>5610513</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,7 +4896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D87853-BD6B-46BB-8C93-F3119DEFCC07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA07551A-B778-4EA1-9692-09949C489AF3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4925,7 +4913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5032,13 +5020,13 @@
         <v>30745</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>79</v>
@@ -5047,13 +5035,13 @@
         <v>33761</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>117</v>
@@ -5062,13 +5050,13 @@
         <v>64506</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5071,13 @@
         <v>71237</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>164</v>
@@ -5098,13 +5086,13 @@
         <v>96972</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>244</v>
@@ -5345,10 +5333,10 @@
         <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>371</v>
@@ -5357,13 +5345,13 @@
         <v>223023</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>533</v>
@@ -5372,13 +5360,13 @@
         <v>355976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5381,13 @@
         <v>905322</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>368</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
         <v>1142</v>
@@ -5408,13 +5396,13 @@
         <v>834839</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>1943</v>
@@ -5423,13 +5411,13 @@
         <v>1740162</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5485,13 @@
         <v>112356</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>275</v>
@@ -5512,10 +5500,10 @@
         <v>168262</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>349</v>
@@ -5527,13 +5515,13 @@
         <v>280618</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5536,13 @@
         <v>616416</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>772</v>
@@ -5640,7 +5628,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5667,13 +5655,13 @@
         <v>297199</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>654</v>
@@ -5682,13 +5670,13 @@
         <v>485081</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5691,13 @@
         <v>777521</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>1120</v>
@@ -5718,13 +5706,13 @@
         <v>850933</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>1912</v>
@@ -5733,13 +5721,13 @@
         <v>1628454</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5795,13 @@
         <v>568339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7">
         <v>1420</v>
@@ -5822,13 +5810,13 @@
         <v>857287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>2097</v>
@@ -5837,13 +5825,13 @@
         <v>1425627</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5846,13 @@
         <v>2815917</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>184</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>3939</v>
@@ -5873,13 +5861,13 @@
         <v>2946772</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>418</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>6637</v>
@@ -5888,13 +5876,13 @@
         <v>5762689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
